--- a/contratos/contratos-3-2016.xlsx
+++ b/contratos/contratos-3-2016.xlsx
@@ -799,7 +799,7 @@
     <t>DUARTE EDMUNDO ALCIDES</t>
   </si>
   <si>
-    <t>FERNANDEZ, MARIO HUGO</t>
+    <t>FERNANDEZ. MARIO HUGO</t>
   </si>
   <si>
     <t>FRANCESCHINI FRANCISCO MANUEL</t>
@@ -808,7 +808,7 @@
     <t>GALLICET OSCAR MARCELO</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>IANUS S.A.</t>
@@ -958,7 +958,7 @@
     <t>LAMBERT CARLOS MIGUEL</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>CASA SPAIS S.A.</t>
@@ -1408,643 +1408,643 @@
     <t>58</t>
   </si>
   <si>
-    <t>21.560,00</t>
-  </si>
-  <si>
-    <t>5.300,00</t>
-  </si>
-  <si>
-    <t>38.720,00</t>
-  </si>
-  <si>
-    <t>104.000,00</t>
-  </si>
-  <si>
-    <t>340,00</t>
-  </si>
-  <si>
-    <t>41.884,00</t>
-  </si>
-  <si>
-    <t>240.352,40</t>
-  </si>
-  <si>
-    <t>211.410,00</t>
-  </si>
-  <si>
-    <t>406,57</t>
-  </si>
-  <si>
-    <t>313.878,40</t>
-  </si>
-  <si>
-    <t>5.021,50</t>
-  </si>
-  <si>
-    <t>382,00</t>
-  </si>
-  <si>
-    <t>3.690,00</t>
-  </si>
-  <si>
-    <t>3.598,04</t>
-  </si>
-  <si>
-    <t>675,00</t>
-  </si>
-  <si>
-    <t>1.350,00</t>
-  </si>
-  <si>
-    <t>360.882,10</t>
-  </si>
-  <si>
-    <t>445.290,99</t>
-  </si>
-  <si>
-    <t>10.552,00</t>
-  </si>
-  <si>
-    <t>5.560,00</t>
-  </si>
-  <si>
-    <t>68.356,23</t>
-  </si>
-  <si>
-    <t>13.950,00</t>
-  </si>
-  <si>
-    <t>10.014,32</t>
-  </si>
-  <si>
-    <t>14.740,00</t>
-  </si>
-  <si>
-    <t>3.780,00</t>
-  </si>
-  <si>
-    <t>22.383,26</t>
-  </si>
-  <si>
-    <t>730,00</t>
-  </si>
-  <si>
-    <t>70.440,00</t>
-  </si>
-  <si>
-    <t>29.796,95</t>
-  </si>
-  <si>
-    <t>5.700,00</t>
-  </si>
-  <si>
-    <t>6.300,00</t>
-  </si>
-  <si>
-    <t>4.590,00</t>
-  </si>
-  <si>
-    <t>1.250,00</t>
-  </si>
-  <si>
-    <t>709,38</t>
-  </si>
-  <si>
-    <t>416.934,44</t>
-  </si>
-  <si>
-    <t>840,00</t>
-  </si>
-  <si>
-    <t>27.132,24</t>
-  </si>
-  <si>
-    <t>651,23</t>
-  </si>
-  <si>
-    <t>148,00</t>
-  </si>
-  <si>
-    <t>30.987,40</t>
-  </si>
-  <si>
-    <t>73.572,82</t>
-  </si>
-  <si>
-    <t>869,13</t>
-  </si>
-  <si>
-    <t>720,00</t>
-  </si>
-  <si>
-    <t>22.830,00</t>
-  </si>
-  <si>
-    <t>2.514,98</t>
-  </si>
-  <si>
-    <t>1.087,88</t>
-  </si>
-  <si>
-    <t>160,00</t>
-  </si>
-  <si>
-    <t>4.314,00</t>
-  </si>
-  <si>
-    <t>4.127,96</t>
-  </si>
-  <si>
-    <t>21.956,00</t>
-  </si>
-  <si>
-    <t>1.170,95</t>
-  </si>
-  <si>
-    <t>5.859,00</t>
-  </si>
-  <si>
-    <t>25.312,77</t>
-  </si>
-  <si>
-    <t>3.700,00</t>
-  </si>
-  <si>
-    <t>15.908,28</t>
-  </si>
-  <si>
-    <t>215,25</t>
-  </si>
-  <si>
-    <t>6.470,00</t>
-  </si>
-  <si>
-    <t>2.817,37</t>
-  </si>
-  <si>
-    <t>1.150,13</t>
-  </si>
-  <si>
-    <t>9.761,93</t>
-  </si>
-  <si>
-    <t>284.800,00</t>
-  </si>
-  <si>
-    <t>32.298,26</t>
-  </si>
-  <si>
-    <t>56.251,81</t>
-  </si>
-  <si>
-    <t>413,10</t>
-  </si>
-  <si>
-    <t>780,00</t>
-  </si>
-  <si>
-    <t>7.912,00</t>
-  </si>
-  <si>
-    <t>884,84</t>
-  </si>
-  <si>
-    <t>1.235,00</t>
-  </si>
-  <si>
-    <t>919,04</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>12.800,00</t>
-  </si>
-  <si>
-    <t>7.106,71</t>
-  </si>
-  <si>
-    <t>204.846,70</t>
-  </si>
-  <si>
-    <t>1.262,92</t>
-  </si>
-  <si>
-    <t>508,75</t>
-  </si>
-  <si>
-    <t>830,00</t>
-  </si>
-  <si>
-    <t>1.846,00</t>
-  </si>
-  <si>
-    <t>11.260,00</t>
-  </si>
-  <si>
-    <t>2.200,00</t>
-  </si>
-  <si>
-    <t>7.891,00</t>
-  </si>
-  <si>
-    <t>7.065,00</t>
-  </si>
-  <si>
-    <t>75,00</t>
-  </si>
-  <si>
-    <t>46.775,00</t>
-  </si>
-  <si>
-    <t>17.360,00</t>
-  </si>
-  <si>
-    <t>396,80</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>65,00</t>
-  </si>
-  <si>
-    <t>469,70</t>
-  </si>
-  <si>
-    <t>9.500,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>228.192,15</t>
-  </si>
-  <si>
-    <t>15.120,00</t>
-  </si>
-  <si>
-    <t>415.230,93</t>
-  </si>
-  <si>
-    <t>53.261,49</t>
-  </si>
-  <si>
-    <t>4.200,00</t>
-  </si>
-  <si>
-    <t>9,61</t>
-  </si>
-  <si>
-    <t>96,61</t>
-  </si>
-  <si>
-    <t>498,00</t>
-  </si>
-  <si>
-    <t>39,00</t>
-  </si>
-  <si>
-    <t>17.156,90</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>850,00</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>571,90</t>
-  </si>
-  <si>
-    <t>207,00</t>
-  </si>
-  <si>
-    <t>5.240,00</t>
-  </si>
-  <si>
-    <t>304,00</t>
-  </si>
-  <si>
-    <t>256,80</t>
-  </si>
-  <si>
-    <t>6.721,00</t>
-  </si>
-  <si>
-    <t>4.675,00</t>
-  </si>
-  <si>
-    <t>4.950,00</t>
-  </si>
-  <si>
-    <t>63.287,37</t>
-  </si>
-  <si>
-    <t>56.130,00</t>
-  </si>
-  <si>
-    <t>4.890,40</t>
-  </si>
-  <si>
-    <t>4.223,80</t>
-  </si>
-  <si>
-    <t>49,52</t>
-  </si>
-  <si>
-    <t>8.700,00</t>
-  </si>
-  <si>
-    <t>208,68</t>
-  </si>
-  <si>
-    <t>6.335,00</t>
-  </si>
-  <si>
-    <t>392,00</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>2.100,00</t>
-  </si>
-  <si>
-    <t>48,00</t>
-  </si>
-  <si>
-    <t>1.538,00</t>
-  </si>
-  <si>
-    <t>309.422,00</t>
-  </si>
-  <si>
-    <t>2.748,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>216.500,00</t>
-  </si>
-  <si>
-    <t>5.850,00</t>
-  </si>
-  <si>
-    <t>671,50</t>
-  </si>
-  <si>
-    <t>1.154,00</t>
-  </si>
-  <si>
-    <t>7.108,70</t>
-  </si>
-  <si>
-    <t>6.437,82</t>
-  </si>
-  <si>
-    <t>2.491,50</t>
-  </si>
-  <si>
-    <t>106,40</t>
-  </si>
-  <si>
-    <t>548,00</t>
-  </si>
-  <si>
-    <t>501,76</t>
-  </si>
-  <si>
-    <t>1.440,76</t>
-  </si>
-  <si>
-    <t>514.800,00</t>
-  </si>
-  <si>
-    <t>209.300,00</t>
-  </si>
-  <si>
-    <t>12.963,76</t>
-  </si>
-  <si>
-    <t>16.000,00</t>
-  </si>
-  <si>
-    <t>4.700,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>21.763,06</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>5.193,00</t>
-  </si>
-  <si>
-    <t>5.112,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>34.645,00</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>12.523,50</t>
-  </si>
-  <si>
-    <t>22.800,00</t>
-  </si>
-  <si>
-    <t>2.176,00</t>
-  </si>
-  <si>
-    <t>915,52</t>
-  </si>
-  <si>
-    <t>49.273,20</t>
-  </si>
-  <si>
-    <t>51.150,00</t>
-  </si>
-  <si>
-    <t>135.000,00</t>
-  </si>
-  <si>
-    <t>968,00</t>
-  </si>
-  <si>
-    <t>16,20</t>
-  </si>
-  <si>
-    <t>2.945,00</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>2.209,30</t>
-  </si>
-  <si>
-    <t>16.600,00</t>
-  </si>
-  <si>
-    <t>13.280,00</t>
-  </si>
-  <si>
-    <t>3.600,00</t>
-  </si>
-  <si>
-    <t>1.001,24</t>
-  </si>
-  <si>
-    <t>83,60</t>
-  </si>
-  <si>
-    <t>960,00</t>
-  </si>
-  <si>
-    <t>1.051,04</t>
-  </si>
-  <si>
-    <t>790,00</t>
-  </si>
-  <si>
-    <t>2.616,00</t>
-  </si>
-  <si>
-    <t>320,00</t>
-  </si>
-  <si>
-    <t>5.750,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>19.230,00</t>
-  </si>
-  <si>
-    <t>3.900,00</t>
-  </si>
-  <si>
-    <t>49,20</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>176,76</t>
-  </si>
-  <si>
-    <t>17.150,00</t>
-  </si>
-  <si>
-    <t>3.320,00</t>
-  </si>
-  <si>
-    <t>3.341,46</t>
-  </si>
-  <si>
-    <t>43.200,00</t>
-  </si>
-  <si>
-    <t>3.800,00</t>
-  </si>
-  <si>
-    <t>4.207,88</t>
-  </si>
-  <si>
-    <t>856.065,25</t>
-  </si>
-  <si>
-    <t>2.560,00</t>
-  </si>
-  <si>
-    <t>52.512,00</t>
-  </si>
-  <si>
-    <t>237.050,00</t>
-  </si>
-  <si>
-    <t>118.000,00</t>
-  </si>
-  <si>
-    <t>203.500,00</t>
-  </si>
-  <si>
-    <t>262.350,00</t>
-  </si>
-  <si>
-    <t>247.544,00</t>
-  </si>
-  <si>
-    <t>32.500,00</t>
-  </si>
-  <si>
-    <t>27.000,00</t>
-  </si>
-  <si>
-    <t>153.750,00</t>
-  </si>
-  <si>
-    <t>406.309,00</t>
-  </si>
-  <si>
-    <t>220.000,00</t>
-  </si>
-  <si>
-    <t>167.700,00</t>
-  </si>
-  <si>
-    <t>146.132,00</t>
-  </si>
-  <si>
-    <t>110.000,00</t>
-  </si>
-  <si>
-    <t>352,11</t>
-  </si>
-  <si>
-    <t>39.480,00</t>
-  </si>
-  <si>
-    <t>21.796,00</t>
-  </si>
-  <si>
-    <t>44.800,00</t>
-  </si>
-  <si>
-    <t>58.122,50</t>
-  </si>
-  <si>
-    <t>4.260,00</t>
+    <t>21560.00</t>
+  </si>
+  <si>
+    <t>5300.00</t>
+  </si>
+  <si>
+    <t>38720.00</t>
+  </si>
+  <si>
+    <t>104000.00</t>
+  </si>
+  <si>
+    <t>340.00</t>
+  </si>
+  <si>
+    <t>41884.00</t>
+  </si>
+  <si>
+    <t>240352.40</t>
+  </si>
+  <si>
+    <t>211410.00</t>
+  </si>
+  <si>
+    <t>406.57</t>
+  </si>
+  <si>
+    <t>313878.40</t>
+  </si>
+  <si>
+    <t>5021.50</t>
+  </si>
+  <si>
+    <t>382.00</t>
+  </si>
+  <si>
+    <t>3690.00</t>
+  </si>
+  <si>
+    <t>3598.04</t>
+  </si>
+  <si>
+    <t>675.00</t>
+  </si>
+  <si>
+    <t>1350.00</t>
+  </si>
+  <si>
+    <t>360882.10</t>
+  </si>
+  <si>
+    <t>445290.99</t>
+  </si>
+  <si>
+    <t>10552.00</t>
+  </si>
+  <si>
+    <t>5560.00</t>
+  </si>
+  <si>
+    <t>68356.23</t>
+  </si>
+  <si>
+    <t>13950.00</t>
+  </si>
+  <si>
+    <t>10014.32</t>
+  </si>
+  <si>
+    <t>14740.00</t>
+  </si>
+  <si>
+    <t>3780.00</t>
+  </si>
+  <si>
+    <t>22383.26</t>
+  </si>
+  <si>
+    <t>730.00</t>
+  </si>
+  <si>
+    <t>70440.00</t>
+  </si>
+  <si>
+    <t>29796.95</t>
+  </si>
+  <si>
+    <t>5700.00</t>
+  </si>
+  <si>
+    <t>6300.00</t>
+  </si>
+  <si>
+    <t>4590.00</t>
+  </si>
+  <si>
+    <t>1250.00</t>
+  </si>
+  <si>
+    <t>709.38</t>
+  </si>
+  <si>
+    <t>416934.44</t>
+  </si>
+  <si>
+    <t>840.00</t>
+  </si>
+  <si>
+    <t>27132.24</t>
+  </si>
+  <si>
+    <t>651.23</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>30987.40</t>
+  </si>
+  <si>
+    <t>73572.82</t>
+  </si>
+  <si>
+    <t>869.13</t>
+  </si>
+  <si>
+    <t>720.00</t>
+  </si>
+  <si>
+    <t>22830.00</t>
+  </si>
+  <si>
+    <t>2514.98</t>
+  </si>
+  <si>
+    <t>1087.88</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>4314.00</t>
+  </si>
+  <si>
+    <t>4127.96</t>
+  </si>
+  <si>
+    <t>21956.00</t>
+  </si>
+  <si>
+    <t>1170.95</t>
+  </si>
+  <si>
+    <t>5859.00</t>
+  </si>
+  <si>
+    <t>25312.77</t>
+  </si>
+  <si>
+    <t>3700.00</t>
+  </si>
+  <si>
+    <t>15908.28</t>
+  </si>
+  <si>
+    <t>215.25</t>
+  </si>
+  <si>
+    <t>6470.00</t>
+  </si>
+  <si>
+    <t>2817.37</t>
+  </si>
+  <si>
+    <t>1150.13</t>
+  </si>
+  <si>
+    <t>9761.93</t>
+  </si>
+  <si>
+    <t>284800.00</t>
+  </si>
+  <si>
+    <t>32298.26</t>
+  </si>
+  <si>
+    <t>56251.81</t>
+  </si>
+  <si>
+    <t>413.10</t>
+  </si>
+  <si>
+    <t>780.00</t>
+  </si>
+  <si>
+    <t>7912.00</t>
+  </si>
+  <si>
+    <t>884.84</t>
+  </si>
+  <si>
+    <t>1235.00</t>
+  </si>
+  <si>
+    <t>919.04</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>12800.00</t>
+  </si>
+  <si>
+    <t>7106.71</t>
+  </si>
+  <si>
+    <t>204846.70</t>
+  </si>
+  <si>
+    <t>1262.92</t>
+  </si>
+  <si>
+    <t>508.75</t>
+  </si>
+  <si>
+    <t>830.00</t>
+  </si>
+  <si>
+    <t>1846.00</t>
+  </si>
+  <si>
+    <t>11260.00</t>
+  </si>
+  <si>
+    <t>2200.00</t>
+  </si>
+  <si>
+    <t>7891.00</t>
+  </si>
+  <si>
+    <t>7065.00</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>46775.00</t>
+  </si>
+  <si>
+    <t>17360.00</t>
+  </si>
+  <si>
+    <t>396.80</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>469.70</t>
+  </si>
+  <si>
+    <t>9500.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>228192.15</t>
+  </si>
+  <si>
+    <t>15120.00</t>
+  </si>
+  <si>
+    <t>415230.93</t>
+  </si>
+  <si>
+    <t>53261.49</t>
+  </si>
+  <si>
+    <t>4200.00</t>
+  </si>
+  <si>
+    <t>9.61</t>
+  </si>
+  <si>
+    <t>96.61</t>
+  </si>
+  <si>
+    <t>498.00</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>17156.90</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>850.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>571.90</t>
+  </si>
+  <si>
+    <t>207.00</t>
+  </si>
+  <si>
+    <t>5240.00</t>
+  </si>
+  <si>
+    <t>304.00</t>
+  </si>
+  <si>
+    <t>256.80</t>
+  </si>
+  <si>
+    <t>6721.00</t>
+  </si>
+  <si>
+    <t>4675.00</t>
+  </si>
+  <si>
+    <t>4950.00</t>
+  </si>
+  <si>
+    <t>63287.37</t>
+  </si>
+  <si>
+    <t>56130.00</t>
+  </si>
+  <si>
+    <t>4890.40</t>
+  </si>
+  <si>
+    <t>4223.80</t>
+  </si>
+  <si>
+    <t>49.52</t>
+  </si>
+  <si>
+    <t>8700.00</t>
+  </si>
+  <si>
+    <t>208.68</t>
+  </si>
+  <si>
+    <t>6335.00</t>
+  </si>
+  <si>
+    <t>392.00</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>2100.00</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>1538.00</t>
+  </si>
+  <si>
+    <t>309422.00</t>
+  </si>
+  <si>
+    <t>2748.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>216500.00</t>
+  </si>
+  <si>
+    <t>5850.00</t>
+  </si>
+  <si>
+    <t>671.50</t>
+  </si>
+  <si>
+    <t>1154.00</t>
+  </si>
+  <si>
+    <t>7108.70</t>
+  </si>
+  <si>
+    <t>6437.82</t>
+  </si>
+  <si>
+    <t>2491.50</t>
+  </si>
+  <si>
+    <t>106.40</t>
+  </si>
+  <si>
+    <t>548.00</t>
+  </si>
+  <si>
+    <t>501.76</t>
+  </si>
+  <si>
+    <t>1440.76</t>
+  </si>
+  <si>
+    <t>514800.00</t>
+  </si>
+  <si>
+    <t>209300.00</t>
+  </si>
+  <si>
+    <t>12963.76</t>
+  </si>
+  <si>
+    <t>16000.00</t>
+  </si>
+  <si>
+    <t>4700.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>21763.06</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>5193.00</t>
+  </si>
+  <si>
+    <t>5112.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>34645.00</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>12523.50</t>
+  </si>
+  <si>
+    <t>22800.00</t>
+  </si>
+  <si>
+    <t>2176.00</t>
+  </si>
+  <si>
+    <t>915.52</t>
+  </si>
+  <si>
+    <t>49273.20</t>
+  </si>
+  <si>
+    <t>51150.00</t>
+  </si>
+  <si>
+    <t>135000.00</t>
+  </si>
+  <si>
+    <t>968.00</t>
+  </si>
+  <si>
+    <t>16.20</t>
+  </si>
+  <si>
+    <t>2945.00</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>2209.30</t>
+  </si>
+  <si>
+    <t>16600.00</t>
+  </si>
+  <si>
+    <t>13280.00</t>
+  </si>
+  <si>
+    <t>3600.00</t>
+  </si>
+  <si>
+    <t>1001.24</t>
+  </si>
+  <si>
+    <t>83.60</t>
+  </si>
+  <si>
+    <t>960.00</t>
+  </si>
+  <si>
+    <t>1051.04</t>
+  </si>
+  <si>
+    <t>790.00</t>
+  </si>
+  <si>
+    <t>2616.00</t>
+  </si>
+  <si>
+    <t>320.00</t>
+  </si>
+  <si>
+    <t>5750.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>19230.00</t>
+  </si>
+  <si>
+    <t>3900.00</t>
+  </si>
+  <si>
+    <t>49.20</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>176.76</t>
+  </si>
+  <si>
+    <t>17150.00</t>
+  </si>
+  <si>
+    <t>3320.00</t>
+  </si>
+  <si>
+    <t>3341.46</t>
+  </si>
+  <si>
+    <t>43200.00</t>
+  </si>
+  <si>
+    <t>3800.00</t>
+  </si>
+  <si>
+    <t>4207.88</t>
+  </si>
+  <si>
+    <t>856065.25</t>
+  </si>
+  <si>
+    <t>2560.00</t>
+  </si>
+  <si>
+    <t>52512.00</t>
+  </si>
+  <si>
+    <t>237050.00</t>
+  </si>
+  <si>
+    <t>118000.00</t>
+  </si>
+  <si>
+    <t>203500.00</t>
+  </si>
+  <si>
+    <t>262350.00</t>
+  </si>
+  <si>
+    <t>247544.00</t>
+  </si>
+  <si>
+    <t>32500.00</t>
+  </si>
+  <si>
+    <t>27000.00</t>
+  </si>
+  <si>
+    <t>153750.00</t>
+  </si>
+  <si>
+    <t>406309.00</t>
+  </si>
+  <si>
+    <t>220000.00</t>
+  </si>
+  <si>
+    <t>167700.00</t>
+  </si>
+  <si>
+    <t>146132.00</t>
+  </si>
+  <si>
+    <t>110000.00</t>
+  </si>
+  <si>
+    <t>352.11</t>
+  </si>
+  <si>
+    <t>39480.00</t>
+  </si>
+  <si>
+    <t>21796.00</t>
+  </si>
+  <si>
+    <t>44800.00</t>
+  </si>
+  <si>
+    <t>58122.50</t>
+  </si>
+  <si>
+    <t>4260.00</t>
   </si>
 </sst>
 </file>
